--- a/NformTester/NformTester/Keywordscripts/600.10.30.100_AlarmandDataEditAlarmName.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.30.100_AlarmandDataEditAlarmName.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -1204,12 +1204,12 @@
     <definedName name="Pause">'Form DataValDepend'!$CD$1</definedName>
     <definedName name="PauseCol">'Form DataValDepend'!$CD:$CD</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7577" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7579" uniqueCount="847">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3764,10 +3764,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ClickItem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3782,6 +3778,17 @@
   <si>
     <t>$SNMP_device_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_default</t>
   </si>
 </sst>
 </file>
@@ -3925,15 +3932,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3981,10 +3991,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -4427,7 +4442,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4713,8 +4728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4898,7 +4913,7 @@
         <v>773</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -4917,10 +4932,10 @@
         <v>822</v>
       </c>
       <c r="I6" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>844</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>840</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>823</v>
@@ -4961,7 +4976,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="5">
@@ -5037,10 +5052,10 @@
         <v>578</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -5409,6 +5424,12 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="15">
+      <c r="A23" s="19" t="s">
+        <v>845</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>846</v>
+      </c>
       <c r="C23" s="5">
         <v>22</v>
       </c>
@@ -6941,7 +6962,7 @@
         <v>2</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
@@ -7113,7 +7134,7 @@
         <v>56</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="I89" s="11"/>
       <c r="J89" s="5"/>
